--- a/SARANDI.xlsx
+++ b/SARANDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0A5DDA-AE59-422E-A96F-7051D115EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA5F114-3CA1-47CB-86B8-02CE78ADAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,7 +1213,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{25C7CEC7-A144-43FC-962F-5B492BBDDF61}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{547B9C3D-EE7C-462B-A0A4-25E9AC414555}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,10 +1243,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E812A2F8-694A-4AAB-B63A-9440262102F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886A5D93-A497-4D43-9C0B-1BAFC192B7E1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1284,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4290B7-86D3-43BE-A905-F835E3E53C56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA96BF-9534-4562-A83C-398C430F6477}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B22F917-9AB0-4C3D-AB53-F6F1BC19F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7148837-6530-46F5-9D11-7D3F107984B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1366,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1B2382-6763-45EA-EDA7-3EE5AAE0C226}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1122C58-1DBD-0F20-E54E-4DC15AADFCEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D877ACD-F65C-186A-88B5-FC46224011C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913A2A13-A114-082B-C028-F91DCA39F71E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DCE32F-7258-9B2E-4473-C775ED72C8BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814269F9-9D5F-0369-B597-65C10F41FD91}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B561F0-37AB-8E80-DAD3-3EFE3529AD40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190F54BF-8786-5E82-0570-86106652F6DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EED127-0811-BC2C-78F2-2C5E7BE43BA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C6BB45-A2A4-92FD-E18C-97E3BD5D4193}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B12D86C-A46C-4AE4-B0F1-A7C4E3D216BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2072B07-53DB-4086-934F-075371819E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF38998D-528D-4FB1-8812-0821AAA17E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BCCD83-6E5D-47A2-81F4-50A537BC62D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1620,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D43F0CA-5F4B-40A8-9FFC-64DA068ECD61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00530B9F-2D6F-4BC1-9CC5-ED660BC6BDAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A896D91-F70A-45DB-A689-0E8036113E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A08FF1-86CD-4742-9120-2294D10690FA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SARANDI.xlsx
+++ b/SARANDI.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA5F114-3CA1-47CB-86B8-02CE78ADAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39070EB9-5210-41F4-AA3B-8D4BAE6A90E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="302">
   <si>
     <t>COMARCA</t>
   </si>
@@ -932,15 +931,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SARANDI</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,27 +1183,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{547B9C3D-EE7C-462B-A0A4-25E9AC414555}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4CDB4E66-A4C5-4B8E-9E51-24BAA999A848}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,10 +1218,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886A5D93-A497-4D43-9C0B-1BAFC192B7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D17382-981D-4703-9F93-07AEB0FC51FD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1259,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA96BF-9534-4562-A83C-398C430F6477}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2234A25-52D9-431B-9061-0E37EC716399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7148837-6530-46F5-9D11-7D3F107984B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC639C71-7352-446C-B2F7-B0B68AB938B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1341,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1122C58-1DBD-0F20-E54E-4DC15AADFCEC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FF4BAD-D683-8AC9-A4BD-DAB72AEAF301}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1390,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913A2A13-A114-082B-C028-F91DCA39F71E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3B5350-A2E1-D081-669E-1F31745BB262}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1434,7 +1409,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814269F9-9D5F-0369-B597-65C10F41FD91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56E6E7A-2C9B-7EE9-8F76-93B48FCA6F43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1440,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190F54BF-8786-5E82-0570-86106652F6DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2AFE3E-A538-31F9-D590-D684DD6D953C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1471,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C6BB45-A2A4-92FD-E18C-97E3BD5D4193}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B1F89B-4C9E-86FF-B8DC-174DE2BBEFCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,7 +1514,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2072B07-53DB-4086-934F-075371819E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A44E32-85DE-4061-8AE0-C9B328E7E14A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1552,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BCCD83-6E5D-47A2-81F4-50A537BC62D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3639B713-C405-4010-BCF7-5CDFE2423536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1595,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00530B9F-2D6F-4BC1-9CC5-ED660BC6BDAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF42766E-444A-4C08-AF33-7BFDFDABA977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A08FF1-86CD-4742-9120-2294D10690FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333EBBF-DBC1-4579-B65A-542A1F4FBF81}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1945,98 +1920,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5503,52 +5478,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="32">
-        <v>67</v>
-      </c>
-      <c r="C2" s="30">
-        <v>4.4306308689326807E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SARANDI.xlsx
+++ b/SARANDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39070EB9-5210-41F4-AA3B-8D4BAE6A90E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA0BC25-53DF-4DC4-B26C-F7279BB8EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4CDB4E66-A4C5-4B8E-9E51-24BAA999A848}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{889777C9-B3C6-46A7-9381-B9E749672E60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,10 +1218,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D17382-981D-4703-9F93-07AEB0FC51FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B56B0B-EF67-4EDF-99E9-1CDD8FF2D553}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1259,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2234A25-52D9-431B-9061-0E37EC716399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51510FF2-7573-4D58-932E-88422AF29A7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC639C71-7352-446C-B2F7-B0B68AB938B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121C8848-FBFA-426F-82F2-706039AEC77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FF4BAD-D683-8AC9-A4BD-DAB72AEAF301}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD65E49-1985-E57A-6D47-498D188A6B77}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3B5350-A2E1-D081-669E-1F31745BB262}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E98ECC-5980-8B40-2322-6443B0BB00A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56E6E7A-2C9B-7EE9-8F76-93B48FCA6F43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A064C86-5ECE-BB08-3EEE-A47684969A62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2AFE3E-A538-31F9-D590-D684DD6D953C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E5F9BF-70B2-689A-ACC9-71BFE1478F1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B1F89B-4C9E-86FF-B8DC-174DE2BBEFCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC3D81C-86A8-9703-0C8D-45745150BC41}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A44E32-85DE-4061-8AE0-C9B328E7E14A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A5BFFF-90F3-4561-9FF4-9C8DE784F7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3639B713-C405-4010-BCF7-5CDFE2423536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586D58CF-65E5-47AF-8E7D-5CACD83FC278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,50 +1577,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF42766E-444A-4C08-AF33-7BFDFDABA977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1908,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333EBBF-DBC1-4579-B65A-542A1F4FBF81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF958C6-1E30-4865-BFEA-A24754838EA8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
